--- a/Study 3/Shocks/GCAM/NDC_LTT - 2060.xlsx
+++ b/Study 3/Shocks/GCAM/NDC_LTT - 2060.xlsx
@@ -11402,7 +11402,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.02926102760485632</v>
+        <v>0.02926102760485631</v>
       </c>
     </row>
     <row r="3">
@@ -11522,7 +11522,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.08934681923386752</v>
+        <v>0.08934681923386753</v>
       </c>
     </row>
     <row r="6">
@@ -11562,7 +11562,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.07812032184785135</v>
+        <v>0.07812032184785132</v>
       </c>
     </row>
     <row r="7">
@@ -11722,7 +11722,7 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.009783795280848004</v>
+        <v>0.009783795280848001</v>
       </c>
     </row>
     <row r="11">
@@ -11882,7 +11882,7 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.002393849516946487</v>
+        <v>0.002393849516946486</v>
       </c>
     </row>
     <row r="15">
@@ -12202,7 +12202,7 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>0.433855561720038</v>
+        <v>0.4338555617200379</v>
       </c>
     </row>
     <row r="23">
@@ -12322,7 +12322,7 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>0.01756598923689891</v>
+        <v>0.01756598923689892</v>
       </c>
     </row>
     <row r="26">
@@ -12362,7 +12362,7 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0.0004782691981457113</v>
+        <v>0.0004782691981457111</v>
       </c>
     </row>
     <row r="27">
@@ -12482,7 +12482,7 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0.02605911235196937</v>
+        <v>0.02605911235196938</v>
       </c>
     </row>
     <row r="30">
@@ -12522,7 +12522,7 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>0.003710679675201207</v>
+        <v>0.003710679675201206</v>
       </c>
     </row>
     <row r="31">
@@ -12842,7 +12842,7 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>0.1636299955688271</v>
+        <v>0.163629995568827</v>
       </c>
     </row>
     <row r="39">
